--- a/docx/template/DataFile.xlsx
+++ b/docx/template/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\docx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779A2C1-DC16-46F7-BA50-14B60947D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8573A4-5FFC-41E1-93DF-D81FCD07B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Merge" sheetId="24" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Hộp</t>
   </si>
@@ -257,13 +257,25 @@
     <t>Ghi chú 4</t>
   </si>
   <si>
-    <t>Ghi chú 5</t>
-  </si>
-  <si>
-    <t>Ghi chú 6</t>
-  </si>
-  <si>
-    <t>Ghi chú 7</t>
+    <t xml:space="preserve"> | dmy</t>
+  </si>
+  <si>
+    <t>\{(*)\}</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>chữ thường</t>
+  </si>
+  <si>
+    <t>CHỮ HOA</t>
+  </si>
+  <si>
+    <t>In hoa chữ đầu</t>
+  </si>
+  <si>
+    <t>Số 9.251.556,55</t>
   </si>
 </sst>
 </file>
@@ -274,11 +286,19 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -392,6 +412,31 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -465,75 +510,84 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="7" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" quotePrefix="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" quotePrefix="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1420,10 +1474,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1436,7 +1490,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1459,9 +1513,9 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <f ca="1">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44268</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1">
@@ -1471,9 +1525,9 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <f t="shared" ref="D3:D7" ca="1" si="0">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44528</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1">
@@ -1486,9 +1540,9 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44521</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1">
@@ -1498,9 +1552,9 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44404</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1510,9 +1564,9 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44350</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1522,13 +1576,13 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44441</v>
+        <v>44507</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1536,1021 +1590,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0508-80F6-40F1-BAC9-A07D1BBAF161}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="16"/>
+      <c r="B2" s="21" t="str">
+        <f>"{#table}{"&amp;B1&amp;"}"</f>
+        <v>{#table}{TT}</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>"{"&amp;C1&amp;"}"</f>
+        <v>{HangMuc}</v>
+      </c>
+      <c r="D2" s="21" t="str">
+        <f t="shared" ref="D2:E2" si="0">"{"&amp;D1&amp;"}"</f>
+        <v>{x4}</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>{x5}</v>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f t="shared" ref="C2:F2" si="1">"{#table}{"&amp;F1&amp;"}"</f>
+        <v>{#table}{x6}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" s="19">
+        <f>COUNTIF($A$3:A3,"x")</f>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" s="19">
+        <f>COUNTIF($A$3:A4,"x")</f>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" s="19">
+        <f>COUNTIF($A$3:A5,"x")</f>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" s="19">
+        <f>COUNTIF($A$3:A6,"x")</f>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>614</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>614</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>614</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>614</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>31</v>
-      </c>
-      <c r="F34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>614</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>31</v>
-      </c>
-      <c r="F41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>20</v>
-      </c>
-      <c r="F42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>614</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>31</v>
-      </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>20</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2571,7 +1751,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -2725,26 +1905,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4248B5-BF08-49FA-A102-DD6E48C71A42}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="38.21875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" style="11" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
     <col min="4" max="4" width="66" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="4"/>
     <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
+    <col min="9" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="str">
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="str">
         <f ca="1">"{"&amp;C1&amp;B1&amp;"}"</f>
         <v>{HoTen | upper}</v>
       </c>
@@ -2759,10 +1939,12 @@
         <f ca="1"/>
         <v>Nguyễn Văn 1</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="str">
+      <c r="G1" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="str">
         <f ca="1">"{"&amp;C2&amp;B2&amp;"}"</f>
         <v>{Id | number}</v>
       </c>
@@ -2780,9 +1962,12 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="str">
+      <c r="H2" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="str">
         <f t="shared" ref="A3:A66" ca="1" si="0">"{"&amp;C3&amp;B3&amp;"}"</f>
         <v>{NgaySinh}</v>
       </c>
@@ -2792,14 +1977,17 @@
       </c>
       <c r="D3" s="4">
         <f ca="1"/>
-        <v>44268</v>
-      </c>
-      <c r="G3" s="15" t="s">
+        <v>44349</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12" t="str">
+      <c r="H3" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>{0}</v>
       </c>
@@ -2814,9 +2002,12 @@
       <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12" t="str">
+      <c r="H4" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2825,9 +2016,12 @@
       <c r="G5" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12" t="str">
+      <c r="H5" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2836,8 +2030,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="str">
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2847,8 +2041,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="str">
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2857,8 +2051,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12" t="str">
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2868,15 +2062,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12" t="str">
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12" t="str">
+      <c r="G10" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2884,65 +2081,65 @@
       <c r="D11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12" t="str">
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="str">
+    <row r="13" spans="1:8">
+      <c r="A13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12" t="str">
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12" t="str">
+    <row r="15" spans="1:8">
+      <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12" t="str">
+    <row r="16" spans="1:8">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12" t="str">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12" t="str">
+      <c r="A18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="12" t="str">
+      <c r="A20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2950,14 +2147,14 @@
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12" t="str">
+      <c r="A22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2965,28 +2162,28 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12" t="str">
+      <c r="A23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="12" t="str">
+      <c r="A24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12" t="str">
+      <c r="A25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -2994,14 +2191,14 @@
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12" t="str">
+      <c r="A27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="12" t="str">
+      <c r="A28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3009,14 +2206,14 @@
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12" t="str">
+      <c r="A29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3024,14 +2221,14 @@
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="12" t="str">
+      <c r="A31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="12" t="str">
+      <c r="A32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3039,14 +2236,14 @@
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="12" t="str">
+      <c r="A33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="12" t="str">
+      <c r="A34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3054,14 +2251,14 @@
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="12" t="str">
+      <c r="A35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3069,14 +2266,14 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="12" t="str">
+      <c r="A37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="12" t="str">
+      <c r="A38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3084,14 +2281,14 @@
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="12" t="str">
+      <c r="A39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="12" t="str">
+      <c r="A40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3099,7 +2296,7 @@
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="12" t="str">
+      <c r="A41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3107,7 +2304,7 @@
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="12" t="str">
+      <c r="A42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3115,7 +2312,7 @@
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="12" t="str">
+      <c r="A43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3123,14 +2320,14 @@
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="12" t="str">
+      <c r="A44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="12" t="str">
+      <c r="A45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3138,14 +2335,14 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="12" t="str">
+      <c r="A46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="12" t="str">
+      <c r="A47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3153,51 +2350,51 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="12" t="str">
+      <c r="A48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="12" t="str">
+      <c r="A49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="12" t="str">
+      <c r="A50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="12" t="str">
+      <c r="A51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="12" t="str">
+      <c r="A52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="12" t="str">
+      <c r="A53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="12" t="str">
+      <c r="A54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3205,14 +2402,14 @@
       <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="12" t="str">
+      <c r="A55" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="12" t="str">
+      <c r="A56" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3220,14 +2417,14 @@
       <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="12" t="str">
+      <c r="A57" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="12" t="str">
+      <c r="A58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3235,14 +2432,14 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="12" t="str">
+      <c r="A59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="12" t="str">
+      <c r="A60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3250,14 +2447,14 @@
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12" t="str">
+      <c r="A61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="12" t="str">
+      <c r="A62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3265,7 +2462,7 @@
       <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="12" t="str">
+      <c r="A63" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
@@ -3273,147 +2470,147 @@
       <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="12" t="str">
+      <c r="A64" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="12" t="str">
+      <c r="A65" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="12" t="str">
+      <c r="A66" s="11" t="str">
         <f t="shared" si="0"/>
         <v>{}</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="12" t="str">
+      <c r="A67" s="11" t="str">
         <f t="shared" ref="A67:A84" si="1">"{"&amp;C67&amp;B67&amp;"}"</f>
         <v>{}</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="12" t="str">
+      <c r="A68" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="12" t="str">
+      <c r="A69" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="12" t="str">
+      <c r="A70" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="12" t="str">
+      <c r="A71" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="12" t="str">
+      <c r="A72" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="12" t="str">
+      <c r="A73" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="12" t="str">
+      <c r="A74" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="12" t="str">
+      <c r="A75" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="12" t="str">
+      <c r="A76" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="12" t="str">
+      <c r="A77" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="12" t="str">
+      <c r="A78" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="12" t="str">
+      <c r="A79" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="12" t="str">
+      <c r="A80" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="12" t="str">
+      <c r="A81" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="12" t="str">
+      <c r="A82" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="12" t="str">
+      <c r="A83" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="12" t="str">
+      <c r="A84" s="11" t="str">
         <f t="shared" si="1"/>
         <v>{}</v>
       </c>
@@ -3433,10 +2630,7 @@
       <formula>NOT(ISERROR(SEARCH("x",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{6E502BBE-E266-4606-AADC-455AD18A7B99}">
-      <formula1>OFFSET(G2,0,0,COUNTA(G:G))</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B84" xr:uid="{F31B0C7A-5E4A-447F-ADC7-0262F67D185A}">
       <formula1>OFFSET($G$2,0,0,COUNTA(G:G))</formula1>
     </dataValidation>

--- a/docx/template/DataFile.xlsx
+++ b/docx/template/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\docx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8573A4-5FFC-41E1-93DF-D81FCD07B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCFE06-7ECA-4E05-8C60-6100EA11EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Merge" sheetId="24" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,6 +586,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1476,15 +1482,15 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1510,24 +1516,24 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="17">
         <f ca="1">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44349</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1">
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D7" ca="1" si="0">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44533</v>
+        <v>44520</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1">
@@ -1537,48 +1543,48 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
+        <v>44450</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1">
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44258</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44344</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44423</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1650,7 @@
         <v>{x5}</v>
       </c>
       <c r="F2" s="21" t="str">
-        <f t="shared" ref="C2:F2" si="1">"{#table}{"&amp;F1&amp;"}"</f>
+        <f t="shared" ref="F2" si="1">"{#table}{"&amp;F1&amp;"}"</f>
         <v>{#table}{x6}</v>
       </c>
     </row>
@@ -1907,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4248B5-BF08-49FA-A102-DD6E48C71A42}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -1977,7 +1983,7 @@
       </c>
       <c r="D3" s="4">
         <f ca="1"/>
-        <v>44349</v>
+        <v>44550</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>13</v>

--- a/docx/template/DataFile.xlsx
+++ b/docx/template/DataFile.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\docx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCFE06-7ECA-4E05-8C60-6100EA11EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63195159-9DFA-47E8-9CA0-2D6BA2305CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Merge" sheetId="24" r:id="rId1"/>
-    <sheet name="table" sheetId="48" r:id="rId2"/>
-    <sheet name="table1" sheetId="49" r:id="rId3"/>
+    <sheet name="ac" sheetId="48" r:id="rId2"/>
+    <sheet name="def" sheetId="49" r:id="rId3"/>
     <sheet name="Template" sheetId="47" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="data">[1]Data!$A:$G</definedName>
-    <definedName name="DonGia">#REF!</definedName>
     <definedName name="MG">_Merge!$1:$9</definedName>
-    <definedName name="NhanSu">#REF!</definedName>
-    <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Hộp</t>
   </si>
@@ -224,27 +217,6 @@
     <t>Nguyễn Văn 6</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>27014</t>
-  </si>
-  <si>
-    <t>34008</t>
-  </si>
-  <si>
-    <t>48016</t>
-  </si>
-  <si>
-    <t>53006</t>
-  </si>
-  <si>
-    <t>62004</t>
-  </si>
-  <si>
-    <t>78016</t>
-  </si>
-  <si>
     <t>Ghi chú 1</t>
   </si>
   <si>
@@ -276,21 +248,93 @@
   </si>
   <si>
     <t>Số 9.251.556,55</t>
+  </si>
+  <si>
+    <t>vnd</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Haạng mục</t>
+  </si>
+  <si>
+    <t>DVT</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | m</t>
+  </si>
+  <si>
+    <t>Số tiền bằng chữ</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>tháng</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>ngày xx tháng xx năm xxxx</t>
+  </si>
+  <si>
+    <t>giờ</t>
+  </si>
+  <si>
+    <t>phút</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -411,6 +455,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -432,6 +477,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -508,94 +559,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="8" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="164" fontId="9" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" quotePrefix="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" quotePrefix="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
+    <cellStyle name="Comma" xfId="25" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -669,491 +729,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Print"/>
-      <sheetName val="Data"/>
-      <sheetName val="Info"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ID</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>SoVB</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>LoaiVatTu</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>DonVi</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SoLuong</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Lí do</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v xml:space="preserve">Ngày </v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>2</v>
-          </cell>
-          <cell r="C2">
-            <v>3</v>
-          </cell>
-          <cell r="D2">
-            <v>4</v>
-          </cell>
-          <cell r="E2">
-            <v>5</v>
-          </cell>
-          <cell r="F2">
-            <v>6</v>
-          </cell>
-          <cell r="G2">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>85-1</v>
-          </cell>
-          <cell r="B3">
-            <v>85</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>CPU Máy tính</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Bộ</v>
-          </cell>
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Phục vụ nhu cầu công tác Điện lực</v>
-          </cell>
-          <cell r="G3">
-            <v>43697</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>85-2</v>
-          </cell>
-          <cell r="B4">
-            <v>85</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Máy tính xách tay</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>85-3</v>
-          </cell>
-          <cell r="B5">
-            <v>85</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Máy in A4</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>85-4</v>
-          </cell>
-          <cell r="B6">
-            <v>85</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Máy scan</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>85-5</v>
-          </cell>
-          <cell r="B7">
-            <v>85</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Máy fax</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>85-6</v>
-          </cell>
-          <cell r="B8">
-            <v>85</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Ổ SSD 120GB</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>85-7</v>
-          </cell>
-          <cell r="B9">
-            <v>85</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>RAM DDR3 4GB</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>85-8</v>
-          </cell>
-          <cell r="B10">
-            <v>85</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>RAM Laptop 4GB</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>85-9</v>
-          </cell>
-          <cell r="B11">
-            <v>85</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Khay gắn ổ SSD Laptop</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>85-10</v>
-          </cell>
-          <cell r="B12">
-            <v>85</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Camera</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Cái</v>
-          </cell>
-          <cell r="E12">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>86-1</v>
-          </cell>
-          <cell r="B13">
-            <v>86</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Giấy A4</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Ram</v>
-          </cell>
-          <cell r="E13">
-            <v>40</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>Văn phòng phẩm quý 3</v>
-          </cell>
-          <cell r="G13">
-            <v>43697</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>86-2</v>
-          </cell>
-          <cell r="B14">
-            <v>86</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Mực 26A</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E14">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>86-3</v>
-          </cell>
-          <cell r="B15">
-            <v>86</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Mực 80A</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E15">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>125-1</v>
-          </cell>
-          <cell r="B16">
-            <v>125</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Giấy A4</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>Ram</v>
-          </cell>
-          <cell r="E16">
-            <v>40</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>Văn phòng phẩm quý 4</v>
-          </cell>
-          <cell r="G16">
-            <v>43766</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>125-2</v>
-          </cell>
-          <cell r="B17">
-            <v>125</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Mực 26A</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E17">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>125-3</v>
-          </cell>
-          <cell r="B18">
-            <v>125</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Mực 80A</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E18">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>422-1</v>
-          </cell>
-          <cell r="B19">
-            <v>422</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Mực in LASEZ 80A</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E19">
-            <v>2</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>Mực in, giấy in quý 4 năm 2020</v>
-          </cell>
-          <cell r="G19">
-            <v>44160</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>422-2</v>
-          </cell>
-          <cell r="B20">
-            <v>422</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Mực in LASEZ 26A</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E20">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>422-3</v>
-          </cell>
-          <cell r="B21">
-            <v>422</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v xml:space="preserve">Mực in LASER 05A </v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>422-4</v>
-          </cell>
-          <cell r="B22">
-            <v>422</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v xml:space="preserve">Giấy photo A4 </v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>Ram</v>
-          </cell>
-          <cell r="E22">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>110-1</v>
-          </cell>
-          <cell r="B23">
-            <v>110</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Mực in LASEZ 26A</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E23">
-            <v>6</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>Mực in, giấy in quý 1 năm 2021</v>
-          </cell>
-          <cell r="G23">
-            <v>44263</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>110-2</v>
-          </cell>
-          <cell r="B24">
-            <v>110</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v xml:space="preserve">Giấy photo A4 </v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Ram</v>
-          </cell>
-          <cell r="E24">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>110-3</v>
-          </cell>
-          <cell r="B25">
-            <v>110</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v xml:space="preserve">Mực sạc máy in A4 </v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>Hộp</v>
-          </cell>
-          <cell r="E25">
-            <v>4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1480,22 +1055,29 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -1503,92 +1085,292 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="1">
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>39</v>
+      <c r="C2" s="26">
+        <v>49074.544999999998</v>
       </c>
       <c r="D2" s="17">
         <f ca="1">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1">
+        <v>44267</v>
+      </c>
+      <c r="E2" s="24">
+        <f t="shared" ref="C2:E7" ca="1" si="0">RANDBETWEEN(15100,54561)</f>
+        <v>54306</v>
+      </c>
+      <c r="F2" t="str">
+        <f>B2</f>
+        <v>Nguyễn Văn 1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>F2</f>
+        <v>Nguyễn Văn 1</v>
+      </c>
+      <c r="H2" s="17">
+        <f ca="1">$D$2</f>
+        <v>44267</v>
+      </c>
+      <c r="I2" s="17">
+        <f t="shared" ref="I2:J7" ca="1" si="1">$D$2</f>
+        <v>44267</v>
+      </c>
+      <c r="J2" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="K2" s="17">
+        <f ca="1">J2</f>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>40</v>
+      <c r="C3" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>45262</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" ref="D3:D7" ca="1" si="0">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customFormat="1">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
+        <f t="shared" ref="D3:D7" ca="1" si="2">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
+        <v>44441</v>
+      </c>
+      <c r="E3" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>21643</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F7" si="3">B3</f>
+        <v>Nguyễn Văn 2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="4">F3</f>
+        <v>Nguyễn Văn 2</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H7" ca="1" si="5">$D$2</f>
+        <v>44267</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="K3" s="17">
+        <f t="shared" ref="K3:K7" ca="1" si="6">J3</f>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" customFormat="1">
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>41</v>
+      <c r="C4" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>53260</v>
       </c>
       <c r="D4" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>44391</v>
+      </c>
+      <c r="E4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>44450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1">
+        <v>51055</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Văn 3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>Nguyễn Văn 3</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>44267</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1">
+      <c r="A5"/>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>42</v>
+      <c r="C5" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>48069</v>
       </c>
       <c r="D5" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>44340</v>
+      </c>
+      <c r="E5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>44418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16648</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Văn 4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>Nguyễn Văn 4</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>44267</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6"/>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>43</v>
+      <c r="C6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>40291</v>
       </c>
       <c r="D6" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>44455</v>
+      </c>
+      <c r="E6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>44416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>28171</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Văn 5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>Nguyễn Văn 5</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>44267</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7"/>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>44</v>
+      <c r="C7" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>44543</v>
       </c>
       <c r="D7" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>44238</v>
+      </c>
+      <c r="E7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>44423</v>
-      </c>
+        <v>44110</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Văn 6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>Nguyễn Văn 6</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>44267</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>44267</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1596,15 +1378,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0508-80F6-40F1-BAC9-A07D1BBAF161}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" customWidth="1"/>
@@ -1615,64 +1397,61 @@
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="16"/>
-      <c r="B2" s="21" t="str">
+      <c r="B2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="21" t="str">
         <f>"{#table}{"&amp;B1&amp;"}"</f>
         <v>{#table}{TT}</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C3" s="22" t="str">
         <f>"{"&amp;C1&amp;"}"</f>
         <v>{HangMuc}</v>
       </c>
-      <c r="D2" s="21" t="str">
-        <f t="shared" ref="D2:E2" si="0">"{"&amp;D1&amp;"}"</f>
+      <c r="D3" s="21" t="str">
+        <f t="shared" ref="D3:E3" si="0">"{"&amp;D1&amp;"}"</f>
         <v>{x4}</v>
       </c>
-      <c r="E2" s="21" t="str">
+      <c r="E3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>{x5}</v>
       </c>
-      <c r="F2" s="21" t="str">
-        <f t="shared" ref="F2" si="1">"{#table}{"&amp;F1&amp;"}"</f>
-        <v>{#table}{x6}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19">
-        <f>COUNTIF($A$3:A3,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
+      <c r="F3" s="21" t="str">
+        <f>"{"&amp;F1&amp;"}{/table}"</f>
+        <v>{x6}{/table}</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1680,63 +1459,84 @@
         <v>8</v>
       </c>
       <c r="B4" s="19">
-        <f>COUNTIF($A$3:A4,"x")</f>
-        <v>2</v>
+        <f>COUNTIF($A$4:A4,"x")</f>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="19">
-        <f>COUNTIF($A$3:A5,"x")</f>
+        <f>COUNTIF($A$4:A5,"x")</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" s="19">
-        <f>COUNTIF($A$3:A6,"x")</f>
-        <v>3</v>
+        <f>COUNTIF($A$4:A6,"x")</f>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19">
+        <f>COUNTIF($A$4:A7,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1746,7 +1546,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1797,6 +1597,9 @@
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -1834,6 +1637,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
@@ -1851,6 +1657,9 @@
       </c>
     </row>
     <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6">
         <v>4</v>
       </c>
@@ -1888,6 +1697,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8">
         <v>6</v>
       </c>
@@ -1914,7 +1726,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -1922,11 +1734,14 @@
     <col min="1" max="1" width="38.21875" style="11" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="66" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="4"/>
     <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="24.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1938,7 +1753,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="C1:D4" ca="1">TRANSPOSE(OFFSET(_Merge!B1,0,0,2,COUNTA(_Merge!1:1)))</f>
+        <f t="array" aca="1" ref="C1:D11" ca="1">TRANSPOSE(OFFSET(_Merge!B1,0,0,2,COUNTA(_Merge!1:1)))</f>
         <v>HoTen</v>
       </c>
       <c r="D1" s="4" t="str">
@@ -1946,36 +1761,39 @@
         <v>Nguyễn Văn 1</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="str">
         <f ca="1">"{"&amp;C2&amp;B2&amp;"}"</f>
-        <v>{Id | number}</v>
+        <v>{num | number}</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1"/>
-        <v>Id</v>
-      </c>
-      <c r="D2" s="8" t="str">
+        <v>num</v>
+      </c>
+      <c r="D2" s="8">
         <f ca="1"/>
-        <v>27014</v>
+        <v>49074.544999999998</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="11" t="str">
         <f t="shared" ref="A3:A66" ca="1" si="0">"{"&amp;C3&amp;B3&amp;"}"</f>
-        <v>{NgaySinh}</v>
+        <v>{NgaySinh | dmy}</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="str">
         <f ca="1"/>
@@ -1983,109 +1801,195 @@
       </c>
       <c r="D3" s="4">
         <f ca="1"/>
-        <v>44550</v>
+        <v>44267</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
+        <v>{vnd | number}</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1"/>
+        <v>vnd</v>
+      </c>
+      <c r="D4" s="4">
+        <f ca="1"/>
+        <v>54306</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{up | upper}</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1"/>
+        <v>up</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f ca="1"/>
+        <v>Nguyễn Văn 1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{low | lower}</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1"/>
+        <v>low</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f ca="1"/>
+        <v>Nguyễn Văn 1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{dd | dd}</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1"/>
+        <v>dd</v>
+      </c>
+      <c r="D7" s="9">
+        <f ca="1"/>
+        <v>44267</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{mm | mm}</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1"/>
+        <v>mm</v>
+      </c>
+      <c r="D8" s="4">
+        <f ca="1"/>
+        <v>44267</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{yyyy | yyyy}</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1"/>
+        <v>yyyy</v>
+      </c>
+      <c r="D9" s="9">
+        <f ca="1"/>
+        <v>44267</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{date | h}</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f ca="1"/>
+        <v>date</v>
+      </c>
+      <c r="D10" s="4">
+        <f ca="1"/>
+        <v>44267</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>{0}</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C11" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D11" s="9">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="9"/>
-      <c r="G5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
-      <c r="G7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="G10" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>{}</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="11" t="str">
@@ -2093,6 +1997,12 @@
         <v>{}</v>
       </c>
       <c r="C12" s="5"/>
+      <c r="G12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11" t="str">
@@ -2150,7 +2060,6 @@
         <v>{}</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="str">
@@ -2165,7 +2074,6 @@
         <v>{}</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11" t="str">
@@ -2636,9 +2544,12 @@
       <formula>NOT(ISERROR(SEARCH("x",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B84" xr:uid="{F31B0C7A-5E4A-447F-ADC7-0262F67D185A}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D24 B2:B9 B11:B84" xr:uid="{F31B0C7A-5E4A-447F-ADC7-0262F67D185A}">
       <formula1>OFFSET($G$2,0,0,COUNTA(G:G))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B10" xr:uid="{7047570D-7C1E-479B-B19E-23642B10394E}">
+      <formula1>OFFSET($G$2,0,0,COUNTA(G:G)-1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docx/template/DataFile.xlsx
+++ b/docx/template/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\docx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63195159-9DFA-47E8-9CA0-2D6BA2305CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CAB3B-7D69-4F56-BDFF-2FB74231B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Merge" sheetId="24" r:id="rId1"/>
@@ -1057,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1123,12 +1123,11 @@
         <v>49074.544999999998</v>
       </c>
       <c r="D2" s="17">
-        <f ca="1">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44267</v>
+        <v>44453.604166666664</v>
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="C2:E7" ca="1" si="0">RANDBETWEEN(15100,54561)</f>
-        <v>54306</v>
+        <v>51514</v>
       </c>
       <c r="F2" t="str">
         <f>B2</f>
@@ -1139,20 +1138,20 @@
         <v>Nguyễn Văn 1</v>
       </c>
       <c r="H2" s="17">
-        <f ca="1">$D$2</f>
-        <v>44267</v>
+        <f>$D$2</f>
+        <v>44453.604166666664</v>
       </c>
       <c r="I2" s="17">
-        <f t="shared" ref="I2:J7" ca="1" si="1">$D$2</f>
-        <v>44267</v>
+        <f t="shared" ref="I2:J7" si="1">$D$2</f>
+        <v>44453.604166666664</v>
       </c>
       <c r="J2" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="K2" s="17">
-        <f ca="1">J2</f>
-        <v>44267</v>
+        <f>J2</f>
+        <v>44453.604166666664</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1">
@@ -1164,15 +1163,15 @@
       </c>
       <c r="C3" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>45262</v>
+        <v>41010</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D7" ca="1" si="2">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44441</v>
+        <v>44295</v>
       </c>
       <c r="E3" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>21643</v>
+        <v>50320</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F7" si="3">B3</f>
@@ -1183,20 +1182,20 @@
         <v>Nguyễn Văn 2</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H7" ca="1" si="5">$D$2</f>
-        <v>44267</v>
+        <f t="shared" ref="H3:H7" si="5">$D$2</f>
+        <v>44453.604166666664</v>
       </c>
       <c r="I3" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K7" ca="1" si="6">J3</f>
-        <v>44267</v>
+        <f t="shared" ref="K3:K7" si="6">J3</f>
+        <v>44453.604166666664</v>
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1">
@@ -1205,15 +1204,15 @@
       </c>
       <c r="C4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>53260</v>
+        <v>17875</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44391</v>
+        <v>44515</v>
       </c>
       <c r="E4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>51055</v>
+        <v>31345</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -1224,20 +1223,20 @@
         <v>Nguyễn Văn 3</v>
       </c>
       <c r="H4" s="17">
-        <f t="shared" ca="1" si="5"/>
-        <v>44267</v>
+        <f t="shared" si="5"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="K4" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>44267</v>
+        <f t="shared" si="6"/>
+        <v>44453.604166666664</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1">
@@ -1247,15 +1246,15 @@
       </c>
       <c r="C5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>48069</v>
+        <v>40905</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44340</v>
+        <v>44198</v>
       </c>
       <c r="E5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>16648</v>
+        <v>26551</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -1266,20 +1265,20 @@
         <v>Nguyễn Văn 4</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" ca="1" si="5"/>
-        <v>44267</v>
+        <f t="shared" si="5"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="I5" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="J5" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="K5" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>44267</v>
+        <f t="shared" si="6"/>
+        <v>44453.604166666664</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1289,15 +1288,15 @@
       </c>
       <c r="C6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>40291</v>
+        <v>26740</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44455</v>
+        <v>44308</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>28171</v>
+        <v>24686</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -1308,20 +1307,20 @@
         <v>Nguyễn Văn 5</v>
       </c>
       <c r="H6" s="17">
-        <f t="shared" ca="1" si="5"/>
-        <v>44267</v>
+        <f t="shared" si="5"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="I6" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="J6" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>44267</v>
+        <f t="shared" si="6"/>
+        <v>44453.604166666664</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1331,15 +1330,15 @@
       </c>
       <c r="C7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>44543</v>
+        <v>21365</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44238</v>
+        <v>44402</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>44110</v>
+        <v>27802</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -1350,20 +1349,20 @@
         <v>Nguyễn Văn 6</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ca="1" si="5"/>
-        <v>44267</v>
+        <f t="shared" si="5"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="I7" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="1"/>
+        <v>44453.604166666664</v>
       </c>
       <c r="K7" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>44267</v>
+        <f t="shared" si="6"/>
+        <v>44453.604166666664</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1725,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4248B5-BF08-49FA-A102-DD6E48C71A42}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -1790,10 +1789,10 @@
     <row r="3" spans="1:8">
       <c r="A3" s="11" t="str">
         <f t="shared" ref="A3:A66" ca="1" si="0">"{"&amp;C3&amp;B3&amp;"}"</f>
-        <v>{NgaySinh | dmy}</v>
+        <v>{NgaySinh | m}</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="str">
         <f ca="1"/>
@@ -1801,7 +1800,7 @@
       </c>
       <c r="D3" s="4">
         <f ca="1"/>
-        <v>44267</v>
+        <v>44453.604166666664</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>13</v>
@@ -1824,7 +1823,7 @@
       </c>
       <c r="D4" s="4">
         <f ca="1"/>
-        <v>54306</v>
+        <v>51514</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>14</v>
@@ -1893,7 +1892,7 @@
       </c>
       <c r="D7" s="9">
         <f ca="1"/>
-        <v>44267</v>
+        <v>44453.604166666664</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>17</v>
@@ -1916,7 +1915,7 @@
       </c>
       <c r="D8" s="4">
         <f ca="1"/>
-        <v>44267</v>
+        <v>44453.604166666664</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>18</v>
@@ -1939,7 +1938,7 @@
       </c>
       <c r="D9" s="9">
         <f ca="1"/>
-        <v>44267</v>
+        <v>44453.604166666664</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -1962,7 +1961,7 @@
       </c>
       <c r="D10" s="4">
         <f ca="1"/>
-        <v>44267</v>
+        <v>44453.604166666664</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>42</v>

--- a/docx/template/DataFile.xlsx
+++ b/docx/template/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\docx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CAB3B-7D69-4F56-BDFF-2FB74231B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396290BC-7AA0-4A84-8F54-159C4F3EE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Merge" sheetId="24" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Hộp</t>
   </si>
@@ -307,10 +307,10 @@
     <t>ngày xx tháng xx năm xxxx</t>
   </si>
   <si>
-    <t>giờ</t>
-  </si>
-  <si>
-    <t>phút</t>
+    <t xml:space="preserve"> | time</t>
+  </si>
+  <si>
+    <t>giờ xx phút xx</t>
   </si>
 </sst>
 </file>
@@ -322,11 +322,19 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -561,80 +569,80 @@
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="9" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="164" fontId="10" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" quotePrefix="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" quotePrefix="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="24" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -649,9 +657,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1"/>
   </cellXfs>
   <cellStyles count="26">
@@ -1057,7 +1066,7 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +1136,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="C2:E7" ca="1" si="0">RANDBETWEEN(15100,54561)</f>
-        <v>51514</v>
+        <v>41482</v>
       </c>
       <c r="F2" t="str">
         <f>B2</f>
@@ -1163,15 +1172,15 @@
       </c>
       <c r="C3" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>41010</v>
+        <v>46575</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D7" ca="1" si="2">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44295</v>
+        <v>44551</v>
       </c>
       <c r="E3" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>50320</v>
+        <v>45255</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F7" si="3">B3</f>
@@ -1204,15 +1213,15 @@
       </c>
       <c r="C4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>17875</v>
+        <v>34979</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44515</v>
+        <v>44489</v>
       </c>
       <c r="E4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>31345</v>
+        <v>39506</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -1246,15 +1255,15 @@
       </c>
       <c r="C5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>40905</v>
+        <v>50474</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44198</v>
+        <v>44360</v>
       </c>
       <c r="E5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>26551</v>
+        <v>37587</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -1288,15 +1297,15 @@
       </c>
       <c r="C6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>26740</v>
+        <v>37084</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44308</v>
+        <v>44398</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>24686</v>
+        <v>49679</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -1330,15 +1339,15 @@
       </c>
       <c r="C7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>21365</v>
+        <v>18716</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44402</v>
+        <v>44389</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>27802</v>
+        <v>45077</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -1369,7 +1378,7 @@
       <c r="C8" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1535,7 +1544,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1724,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4248B5-BF08-49FA-A102-DD6E48C71A42}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -1823,7 +1832,7 @@
       </c>
       <c r="D4" s="4">
         <f ca="1"/>
-        <v>51514</v>
+        <v>41482</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>14</v>
@@ -1983,11 +1992,11 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>61</v>
+      <c r="G11" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1996,12 +2005,8 @@
         <v>{}</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11" t="str">

--- a/docx/template/DataFile.xlsx
+++ b/docx/template/DataFile.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\docx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396290BC-7AA0-4A84-8F54-159C4F3EE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECABD860-1B72-42C7-866A-8B92B34CF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_Merge" sheetId="24" r:id="rId1"/>
+    <sheet name="Merge" sheetId="24" r:id="rId1"/>
     <sheet name="ac" sheetId="48" r:id="rId2"/>
     <sheet name="def" sheetId="49" r:id="rId3"/>
     <sheet name="Template" sheetId="47" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="MG">_Merge!$1:$9</definedName>
+    <definedName name="MG">Merge!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1066,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="C2:E7" ca="1" si="0">RANDBETWEEN(15100,54561)</f>
-        <v>41482</v>
+        <v>18871</v>
       </c>
       <c r="F2" t="str">
         <f>B2</f>
@@ -1172,15 +1172,15 @@
       </c>
       <c r="C3" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>46575</v>
+        <v>32123</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D7" ca="1" si="2">DATE(YEAR(TODAY()),RANDBETWEEN(1,12),RANDBETWEEN(1,28))</f>
-        <v>44551</v>
+        <v>44217</v>
       </c>
       <c r="E3" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>45255</v>
+        <v>20365</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F7" si="3">B3</f>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="C4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>34979</v>
+        <v>41600</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44489</v>
+        <v>44331</v>
       </c>
       <c r="E4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>39506</v>
+        <v>17099</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -1255,15 +1255,15 @@
       </c>
       <c r="C5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>50474</v>
+        <v>41602</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44360</v>
+        <v>44336</v>
       </c>
       <c r="E5" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>37587</v>
+        <v>16963</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -1297,15 +1297,15 @@
       </c>
       <c r="C6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>37084</v>
+        <v>28595</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44398</v>
+        <v>44510</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>49679</v>
+        <v>27854</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -1339,15 +1339,15 @@
       </c>
       <c r="C7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>18716</v>
+        <v>44592</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>44389</v>
+        <v>44511</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>45077</v>
+        <v>29499</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4248B5-BF08-49FA-A102-DD6E48C71A42}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="C1:D11" ca="1">TRANSPOSE(OFFSET(_Merge!B1,0,0,2,COUNTA(_Merge!1:1)))</f>
+        <f t="array" aca="1" ref="C1:D11" ca="1">TRANSPOSE(OFFSET(Merge!B1,0,0,2,COUNTA(Merge!1:1)))</f>
         <v>HoTen</v>
       </c>
       <c r="D1" s="4" t="str">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D4" s="4">
         <f ca="1"/>
-        <v>41482</v>
+        <v>18871</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>14</v>
